--- a/test/example_scorings.xlsx
+++ b/test/example_scorings.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcranmer/PermaDocuments/UniAdminTools.jl/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14FC7B59-BF06-A245-AF75-FC27E64B0902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF5165B-775E-054C-91B0-F7ED6DBF283A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="80" yWindow="760" windowWidth="30160" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example_scorings" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>candidates</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Candidate 6</t>
   </si>
   <si>
-    <t>Candidate 7</t>
-  </si>
-  <si>
     <t>Candidate 8</t>
   </si>
   <si>
@@ -80,12 +77,18 @@
   </si>
   <si>
     <t>Candidate 10</t>
+  </si>
+  <si>
+    <t>Candidate FIRST NAME LAST NAME</t>
+  </si>
+  <si>
+    <t>Candidate 11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -919,10 +922,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1095,7 +1100,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F8">
         <v>7.4</v>
@@ -1112,7 +1117,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>3.4</v>
@@ -1132,7 +1137,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>6.3</v>
@@ -1161,7 +1166,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1174,6 +1179,11 @@
       </c>
       <c r="J11">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
